--- a/学习报告/信息化培训报告/新员工半周报-20180321-蒙冠州.xlsx
+++ b/学习报告/信息化培训报告/新员工半周报-20180321-蒙冠州.xlsx
@@ -702,7 +702,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L7"/>
+      <selection activeCell="O11" sqref="A1:O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
